--- a/BackTest/2020-01-16 BackTest BSV.xlsx
+++ b/BackTest/2020-01-16 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>19580.34569622</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>21270.57705451</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>334600</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,7 +523,7 @@
         <v>18334.48752246</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>334900</v>
@@ -525,7 +531,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -556,7 +562,7 @@
         <v>16346.82033112</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>320000</v>
@@ -595,7 +601,7 @@
         <v>14362.79875191</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>309100</v>
@@ -634,9 +640,11 @@
         <v>15860.73727037</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>298300</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -671,7 +679,7 @@
         <v>18999.05131953</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>318800</v>
@@ -784,9 +792,11 @@
         <v>19200.81397379</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>333300</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -821,7 +831,7 @@
         <v>20280.25451619</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>319100</v>
@@ -860,7 +870,7 @@
         <v>19514.6823054</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>323500</v>
@@ -899,7 +909,7 @@
         <v>19958.36400441</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>322400</v>
@@ -938,9 +948,11 @@
         <v>21677.94700758</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>324100</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -975,7 +987,7 @@
         <v>20174.5847974</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>342300</v>
@@ -1014,7 +1026,7 @@
         <v>21011.44554986</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>335000</v>
@@ -1053,9 +1065,11 @@
         <v>20353.71214768</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>342000</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1090,9 +1104,11 @@
         <v>20658.73794681</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>333000</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1127,9 +1143,11 @@
         <v>20427.14024681</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>337800</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1164,9 +1182,11 @@
         <v>21391.26840114</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>335700</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1201,9 +1221,11 @@
         <v>21865.39380114</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>339700</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1238,9 +1260,11 @@
         <v>21596.63208983</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>339800</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1275,9 +1299,11 @@
         <v>22065.97110731</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>339000</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1312,9 +1338,11 @@
         <v>23846.59263665</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>340000</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1497,9 +1525,11 @@
         <v>22282.27985988</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>342000</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1571,9 +1601,11 @@
         <v>21740.26724436</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>339700</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1608,9 +1640,11 @@
         <v>21032.79724318</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>338500</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1645,9 +1679,11 @@
         <v>21875.73059416</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>332000</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1682,9 +1718,11 @@
         <v>21799.53460161</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>334900</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1719,9 +1757,11 @@
         <v>22569.21070927</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>334000</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1756,9 +1796,11 @@
         <v>21290.08194787</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>339700</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1793,9 +1835,11 @@
         <v>22227.45694787</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>339600</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1830,9 +1874,11 @@
         <v>21679.82367802</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>342200</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1867,9 +1913,11 @@
         <v>21094.90659596</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>339300</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -2755,9 +2803,11 @@
         <v>25273.26997411999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>367000</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2829,9 +2879,11 @@
         <v>27110.14976761999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>365000</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -3680,9 +3732,11 @@
         <v>28459.48154349999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>349800</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3717,9 +3771,11 @@
         <v>29008.7859435</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>352800</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3754,9 +3810,11 @@
         <v>30024.83979225</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>353600</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3791,9 +3849,11 @@
         <v>31171.77807284</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>360000</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3828,9 +3888,11 @@
         <v>30740.65620022999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>366100</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3865,9 +3927,11 @@
         <v>30404.99517490999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>365900</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -8231,11 +8295,9 @@
         <v>30728.37716596999</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>351400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -8270,11 +8332,9 @@
         <v>30732.29230308999</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>349700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -8309,11 +8369,9 @@
         <v>30872.72150121999</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>350800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
@@ -8348,11 +8406,9 @@
         <v>31237.64910121999</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>354000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -8387,11 +8443,9 @@
         <v>31391.47616369999</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>355200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -8426,11 +8480,9 @@
         <v>31434.07416369999</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>355800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8502,11 +8554,9 @@
         <v>31722.93806369999</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>358700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8541,11 +8591,9 @@
         <v>31962.78465287999</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>359600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
@@ -8802,16 +8850,18 @@
         <v>35093.09156313999</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
       <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
@@ -8837,11 +8887,15 @@
         <v>35585.70925927999</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8874,7 +8928,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8907,7 +8965,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8940,7 +9002,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8973,7 +9039,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9006,7 +9076,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9039,7 +9113,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9072,7 +9150,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9105,7 +9187,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9138,7 +9224,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9171,7 +9261,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9204,7 +9298,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9237,7 +9335,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9270,7 +9372,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9303,7 +9409,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9336,7 +9446,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9369,7 +9483,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9402,7 +9520,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9435,7 +9557,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9468,7 +9594,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9501,7 +9631,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9534,7 +9668,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9567,7 +9705,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9600,7 +9742,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9633,7 +9779,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9666,7 +9816,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9699,7 +9853,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9732,7 +9890,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9765,7 +9927,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9798,7 +9964,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9831,7 +10001,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9864,7 +10038,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9897,7 +10075,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9930,7 +10112,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9963,7 +10149,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9996,7 +10186,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10029,7 +10223,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10062,7 +10260,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10095,7 +10297,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10128,7 +10334,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10161,7 +10371,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10194,7 +10408,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10227,7 +10445,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10260,7 +10482,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10293,7 +10519,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10326,7 +10556,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10359,7 +10593,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10392,7 +10630,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10425,7 +10667,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10458,7 +10704,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10491,7 +10741,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10524,7 +10778,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10557,7 +10815,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10590,7 +10852,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10623,7 +10889,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10656,7 +10926,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10689,7 +10963,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10722,7 +11000,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10755,7 +11037,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10788,7 +11074,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10821,7 +11111,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10854,7 +11148,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10887,7 +11185,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10920,7 +11222,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10953,7 +11259,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10986,7 +11296,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11019,7 +11333,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11052,7 +11370,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11085,7 +11407,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11118,7 +11444,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11151,7 +11481,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11184,7 +11518,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11217,7 +11555,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11250,7 +11592,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11283,7 +11629,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11316,7 +11666,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11349,7 +11703,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11382,7 +11740,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11415,7 +11777,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11448,7 +11814,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11481,7 +11851,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11514,7 +11888,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11547,7 +11925,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11580,7 +11962,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11613,7 +11999,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11646,7 +12036,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11679,7 +12073,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11712,7 +12110,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11745,7 +12147,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11778,7 +12184,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11811,7 +12221,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11844,7 +12258,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11877,7 +12295,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11910,7 +12332,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11943,7 +12369,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11976,7 +12406,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12009,7 +12443,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12042,7 +12480,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12075,7 +12517,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12108,7 +12554,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12141,7 +12591,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12174,7 +12628,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12207,7 +12665,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12240,7 +12702,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12273,7 +12739,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12306,7 +12776,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12339,7 +12813,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12372,7 +12850,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12405,7 +12887,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12438,7 +12924,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12471,7 +12961,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12504,7 +12998,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12537,7 +13035,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12570,7 +13072,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12603,7 +13109,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12632,15 +13142,13 @@
         <v>34753.34405457001</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="n">
-        <v>353600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L343" t="n">
@@ -12745,11 +13253,9 @@
         <v>34718.73115457001</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="n">
-        <v>354000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
@@ -12821,11 +13327,9 @@
         <v>34831.87465457001</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="n">
-        <v>352000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -12971,11 +13475,9 @@
         <v>34767.37415457001</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>353300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
@@ -14564,16 +15066,18 @@
         <v>37627.79475265002</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
       <c r="M395" t="inlineStr"/>
     </row>
     <row r="396">
@@ -14599,11 +15103,15 @@
         <v>37820.45565243002</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14632,11 +15140,15 @@
         <v>38371.84085243002</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14669,7 +15181,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14702,7 +15218,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14735,7 +15255,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14764,11 +15288,15 @@
         <v>38181.74197847001</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14797,11 +15325,15 @@
         <v>38577.27032752001</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14830,11 +15362,15 @@
         <v>39049.05137847001</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14863,11 +15399,15 @@
         <v>39395.82563481001</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14900,7 +15440,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14933,7 +15477,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14966,7 +15514,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14995,11 +15547,15 @@
         <v>40640.35342251001</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15028,11 +15584,15 @@
         <v>41256.96197671001</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15061,11 +15621,15 @@
         <v>41649.34760054001</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15094,11 +15658,15 @@
         <v>42389.93077874001</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15127,11 +15695,15 @@
         <v>43042.04782518001</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15160,11 +15732,15 @@
         <v>43793.65928885001</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15193,11 +15769,15 @@
         <v>42728.75562466001</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15230,7 +15810,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15259,11 +15843,15 @@
         <v>44001.19951073</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15292,11 +15880,15 @@
         <v>45082.63938437001</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15329,7 +15921,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15362,7 +15958,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15395,7 +15995,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15424,11 +16028,15 @@
         <v>45468.24295040001</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15457,11 +16065,15 @@
         <v>44608.95656495001</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15494,7 +16106,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15527,7 +16143,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15560,7 +16180,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15593,7 +16217,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15626,7 +16254,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15659,7 +16291,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15692,7 +16328,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15725,7 +16365,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15758,7 +16402,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15791,7 +16439,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15824,7 +16476,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15857,7 +16513,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15890,7 +16550,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15923,7 +16587,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15956,7 +16624,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15989,7 +16661,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16022,7 +16698,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16055,7 +16735,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16088,7 +16772,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16121,7 +16809,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16154,7 +16846,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16187,7 +16883,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16216,14 +16916,16 @@
         <v>49444.07502769001</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="n">
-        <v>1</v>
-      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L445" t="inlineStr"/>
       <c r="M445" t="inlineStr"/>
     </row>
     <row r="446">
@@ -16249,7 +16951,7 @@
         <v>50455.75142449001</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16282,7 +16984,7 @@
         <v>51702.12601909001</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16315,7 +17017,7 @@
         <v>50030.58944692001</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16348,7 +17050,7 @@
         <v>50623.37552013001</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16381,7 +17083,7 @@
         <v>52008.34157476001</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16414,7 +17116,7 @@
         <v>50961.54398343001</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16447,7 +17149,7 @@
         <v>51798.60788488</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16480,7 +17182,7 @@
         <v>50702.09423841001</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16513,7 +17215,7 @@
         <v>51091.31579373001</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16546,7 +17248,7 @@
         <v>51696.30301887001</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16579,7 +17281,7 @@
         <v>52287.30485614001</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16612,7 +17314,7 @@
         <v>51582.30340954001</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16645,7 +17347,7 @@
         <v>49935.74663746</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16678,7 +17380,7 @@
         <v>50906.01344229</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16711,7 +17413,7 @@
         <v>51511.98564884</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16744,7 +17446,7 @@
         <v>51066.31121211001</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16777,7 +17479,7 @@
         <v>49829.25703470001</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16810,7 +17512,7 @@
         <v>51621.80318581001</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16843,7 +17545,7 @@
         <v>50832.51198226001</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16876,7 +17578,7 @@
         <v>51516.32143952001</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16909,7 +17611,7 @@
         <v>51881.88864071001</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16942,7 +17644,7 @@
         <v>52541.40317159001</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16975,7 +17677,7 @@
         <v>52180.87501527002</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17008,7 +17710,7 @@
         <v>51857.31448715002</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17041,7 +17743,7 @@
         <v>52337.18476007002</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17074,7 +17776,7 @@
         <v>52058.26835725002</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17107,7 +17809,7 @@
         <v>51686.35946961002</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17140,7 +17842,7 @@
         <v>51250.21657279002</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17173,7 +17875,7 @@
         <v>51710.99963260002</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17206,7 +17908,7 @@
         <v>52198.37852341002</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17239,7 +17941,7 @@
         <v>51751.44385665002</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17272,7 +17974,7 @@
         <v>51445.31925140003</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17305,7 +18007,7 @@
         <v>51237.21136647002</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17371,7 +18073,7 @@
         <v>51239.26007861002</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17503,7 +18205,7 @@
         <v>50784.67305316003</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17536,7 +18238,7 @@
         <v>51003.31559767003</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17602,7 +18304,7 @@
         <v>50386.43154962003</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17635,7 +18337,7 @@
         <v>49708.77003945003</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17668,7 +18370,7 @@
         <v>50553.88392844003</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17701,7 +18403,7 @@
         <v>51027.22908595003</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17734,7 +18436,7 @@
         <v>51665.96766909003</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17767,7 +18469,7 @@
         <v>52506.25285490003</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17800,7 +18502,7 @@
         <v>51708.02744735002</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17833,7 +18535,7 @@
         <v>52133.33374735002</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17866,7 +18568,7 @@
         <v>52594.97227344002</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17899,7 +18601,7 @@
         <v>52857.51729454002</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17932,7 +18634,7 @@
         <v>53100.45447113002</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17965,7 +18667,7 @@
         <v>52515.48553969002</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17998,7 +18700,7 @@
         <v>52163.60210455002</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18031,7 +18733,7 @@
         <v>51783.54507478001</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18064,7 +18766,7 @@
         <v>51997.64980693001</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18097,7 +18799,7 @@
         <v>51776.89194901002</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18130,7 +18832,7 @@
         <v>51624.47871028002</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18163,7 +18865,7 @@
         <v>51322.68106893002</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18196,7 +18898,7 @@
         <v>50791.99066893002</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18229,7 +18931,7 @@
         <v>51094.77718884002</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18262,7 +18964,7 @@
         <v>51094.77718884002</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18295,7 +18997,7 @@
         <v>51520.35603340001</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18328,7 +19030,7 @@
         <v>51985.80431496001</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18361,7 +19063,7 @@
         <v>52259.07521391002</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18394,7 +19096,7 @@
         <v>52059.14895409001</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18427,7 +19129,7 @@
         <v>52223.16871727001</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18460,7 +19162,7 @@
         <v>52040.10213289001</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18493,7 +19195,7 @@
         <v>51936.90557603001</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18526,7 +19228,7 @@
         <v>52057.42571917001</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18559,7 +19261,7 @@
         <v>52263.59817687001</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18592,7 +19294,7 @@
         <v>52223.99112641001</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18625,7 +19327,7 @@
         <v>52138.12332641001</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18658,7 +19360,7 @@
         <v>52297.41737903001</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18691,7 +19393,7 @@
         <v>52196.13387903001</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18724,7 +19426,7 @@
         <v>52104.47977903001</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18757,7 +19459,7 @@
         <v>52218.52817872001</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18790,7 +19492,7 @@
         <v>52077.56237872002</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18823,7 +19525,7 @@
         <v>51824.69030826002</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18856,7 +19558,7 @@
         <v>51660.23218741002</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18889,7 +19591,7 @@
         <v>51323.30620741002</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18922,7 +19624,7 @@
         <v>50672.99355473002</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18955,7 +19657,7 @@
         <v>51560.01155486002</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18988,7 +19690,7 @@
         <v>51052.25103564002</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19021,7 +19723,7 @@
         <v>50377.12725953003</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19054,7 +19756,7 @@
         <v>51067.84282327002</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19087,7 +19789,7 @@
         <v>50447.63812827002</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19120,7 +19822,7 @@
         <v>50802.32748253003</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19153,7 +19855,7 @@
         <v>51226.85663780003</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19186,7 +19888,7 @@
         <v>51685.60003421002</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19219,7 +19921,7 @@
         <v>52082.69310357003</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19252,7 +19954,7 @@
         <v>51828.80705903003</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19285,7 +19987,7 @@
         <v>51685.90475903003</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19318,7 +20020,7 @@
         <v>51632.98134049003</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19351,7 +20053,7 @@
         <v>51466.14564049002</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19384,7 +20086,7 @@
         <v>50952.53880069002</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19417,7 +20119,7 @@
         <v>50071.31814062002</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19450,7 +20152,7 @@
         <v>48379.45099165002</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19483,7 +20185,7 @@
         <v>49384.62768137002</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19516,7 +20218,7 @@
         <v>48588.61872516003</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19549,7 +20251,7 @@
         <v>47531.48889094003</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19582,7 +20284,7 @@
         <v>46355.10369094003</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19615,7 +20317,7 @@
         <v>47620.04906353003</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19648,7 +20350,7 @@
         <v>46471.25149052003</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19681,7 +20383,7 @@
         <v>44980.51123566003</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19714,7 +20416,7 @@
         <v>44407.48944580003</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19747,7 +20449,7 @@
         <v>45314.05007778003</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19780,7 +20482,7 @@
         <v>46005.23932138002</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19813,7 +20515,7 @@
         <v>46931.28587039003</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19846,7 +20548,7 @@
         <v>48127.99638720003</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19879,7 +20581,7 @@
         <v>47634.29129551003</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19912,7 +20614,7 @@
         <v>47206.15440965003</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19945,7 +20647,7 @@
         <v>47813.45479505003</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19978,7 +20680,7 @@
         <v>48220.09278534003</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20011,7 +20713,7 @@
         <v>49156.14846026002</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20044,7 +20746,7 @@
         <v>49839.24101161002</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20077,7 +20779,7 @@
         <v>50953.70621434003</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20110,7 +20812,7 @@
         <v>51757.39381434002</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20143,7 +20845,7 @@
         <v>50872.87799102002</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21331,7 +22033,7 @@
         <v>51432.85416136002</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21364,7 +22066,7 @@
         <v>51596.38972857002</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21397,7 +22099,7 @@
         <v>51398.32732909003</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21430,7 +22132,7 @@
         <v>51443.24732993003</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21463,7 +22165,7 @@
         <v>51386.34724183002</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21496,7 +22198,7 @@
         <v>51476.27735373002</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21529,7 +22231,7 @@
         <v>51552.71045437003</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21562,7 +22264,7 @@
         <v>51552.71045437003</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21595,7 +22297,7 @@
         <v>51485.19165549002</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21628,7 +22330,7 @@
         <v>51611.84165549003</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21694,7 +22396,7 @@
         <v>51886.13458818002</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21727,7 +22429,7 @@
         <v>52035.00628562002</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21793,7 +22495,7 @@
         <v>52470.06356547002</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21859,7 +22561,7 @@
         <v>53097.65884737002</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21925,7 +22627,7 @@
         <v>53014.32712594002</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22156,7 +22858,7 @@
         <v>52975.86302312003</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22189,7 +22891,7 @@
         <v>53039.54042312003</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22222,7 +22924,7 @@
         <v>52998.26852312003</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22255,7 +22957,7 @@
         <v>52916.39255915003</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22288,7 +22990,7 @@
         <v>52834.05395938003</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22321,7 +23023,7 @@
         <v>52770.39380876003</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22915,7 +23617,7 @@
         <v>53307.17866197003</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23080,7 +23782,7 @@
         <v>53043.47272915004</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23179,7 +23881,7 @@
         <v>53310.63071426004</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23245,7 +23947,7 @@
         <v>53370.43688756004</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23278,7 +23980,7 @@
         <v>53594.90894886004</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23311,7 +24013,7 @@
         <v>53755.71254795005</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23344,7 +24046,7 @@
         <v>53656.79618416005</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23377,7 +24079,7 @@
         <v>53584.39678416005</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23410,7 +24112,7 @@
         <v>50589.98288416005</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23443,7 +24145,7 @@
         <v>50560.10308416004</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23476,7 +24178,7 @@
         <v>50540.34128416004</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23509,7 +24211,7 @@
         <v>50483.79002519004</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23542,7 +24244,7 @@
         <v>50179.62192519004</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23575,7 +24277,7 @@
         <v>49797.32442519004</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23608,7 +24310,7 @@
         <v>49673.13378330004</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23641,7 +24343,7 @@
         <v>49999.43624141004</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23707,7 +24409,7 @@
         <v>49876.03424141004</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23806,7 +24508,7 @@
         <v>49475.72284024004</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23839,7 +24541,7 @@
         <v>49801.26024024004</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23872,7 +24574,7 @@
         <v>49801.26024024004</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23905,7 +24607,7 @@
         <v>49878.03872228003</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23971,7 +24673,7 @@
         <v>49938.30372228003</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24004,7 +24706,7 @@
         <v>49833.09992228003</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24037,7 +24739,7 @@
         <v>49699.12406253003</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24070,7 +24772,7 @@
         <v>49728.31066164003</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24103,7 +24805,7 @@
         <v>49825.02147234003</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24136,7 +24838,7 @@
         <v>49733.78045525004</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24169,7 +24871,7 @@
         <v>49651.78534569004</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24862,7 +25564,7 @@
         <v>49190.38098607005</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24895,7 +25597,7 @@
         <v>49217.67598607005</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24928,7 +25630,7 @@
         <v>49242.54218607004</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24994,7 +25696,7 @@
         <v>49221.12968607005</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25027,7 +25729,7 @@
         <v>49225.49159349005</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25093,7 +25795,7 @@
         <v>49116.17599349005</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25918,7 +26620,7 @@
         <v>49352.87292603005</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26182,7 +26884,7 @@
         <v>48777.52844338006</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26215,7 +26917,7 @@
         <v>48440.30564338005</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26248,7 +26950,7 @@
         <v>47467.22554338005</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26281,7 +26983,7 @@
         <v>48301.77359282006</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26314,7 +27016,7 @@
         <v>47964.40256907006</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26347,7 +27049,7 @@
         <v>48641.32931673006</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -29977,7 +30679,7 @@
         <v>49075.73206696003</v>
       </c>
       <c r="H862" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30010,7 +30712,7 @@
         <v>48658.19418642003</v>
       </c>
       <c r="H863" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30043,7 +30745,7 @@
         <v>48375.87598642003</v>
       </c>
       <c r="H864" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30109,7 +30811,7 @@
         <v>48378.53802062003</v>
       </c>
       <c r="H866" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30274,7 +30976,7 @@
         <v>49051.87849950003</v>
       </c>
       <c r="H871" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30307,7 +31009,7 @@
         <v>49309.92544686003</v>
       </c>
       <c r="H872" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30340,7 +31042,7 @@
         <v>49690.88189896003</v>
       </c>
       <c r="H873" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30373,7 +31075,7 @@
         <v>48986.68985898003</v>
       </c>
       <c r="H874" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -30406,7 +31108,7 @@
         <v>48793.52962361003</v>
       </c>
       <c r="H875" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -30439,7 +31141,7 @@
         <v>48793.52962361003</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -32848,7 +33550,7 @@
         <v>48225.30246792001</v>
       </c>
       <c r="H949" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -32881,7 +33583,7 @@
         <v>48302.11668098001</v>
       </c>
       <c r="H950" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -32914,7 +33616,7 @@
         <v>48282.61298098001</v>
       </c>
       <c r="H951" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -32947,7 +33649,7 @@
         <v>48270.95088098001</v>
       </c>
       <c r="H952" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -32980,7 +33682,7 @@
         <v>48193.78656216001</v>
       </c>
       <c r="H953" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33244,7 +33946,7 @@
         <v>48202.27249204001</v>
       </c>
       <c r="H961" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -34366,7 +35068,7 @@
         <v>49382.49968444001</v>
       </c>
       <c r="H995" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34399,7 +35101,7 @@
         <v>49411.10438444001</v>
       </c>
       <c r="H996" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34432,7 +35134,7 @@
         <v>49363.25232998001</v>
       </c>
       <c r="H997" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34465,7 +35167,7 @@
         <v>49265.37901570001</v>
       </c>
       <c r="H998" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -34498,7 +35200,7 @@
         <v>49313.78350178001</v>
       </c>
       <c r="H999" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -36478,7 +37180,7 @@
         <v>48461.32057042</v>
       </c>
       <c r="H1059" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -36511,7 +37213,7 @@
         <v>48461.32057042</v>
       </c>
       <c r="H1060" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -36544,7 +37246,7 @@
         <v>48274.65417042</v>
       </c>
       <c r="H1061" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -36577,7 +37279,7 @@
         <v>48313.20767042</v>
       </c>
       <c r="H1062" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -36610,7 +37312,7 @@
         <v>48186.09017042</v>
       </c>
       <c r="H1063" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -36643,7 +37345,7 @@
         <v>48220.24127042</v>
       </c>
       <c r="H1064" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -36676,7 +37378,7 @@
         <v>48345.56427339</v>
       </c>
       <c r="H1065" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -36709,7 +37411,7 @@
         <v>48306.75770418</v>
       </c>
       <c r="H1066" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -36775,7 +37477,7 @@
         <v>48505.32691350001</v>
       </c>
       <c r="H1068" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -36874,7 +37576,7 @@
         <v>49275.6107331</v>
       </c>
       <c r="H1071" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -36907,7 +37609,7 @@
         <v>49635.93299181</v>
       </c>
       <c r="H1072" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -36940,7 +37642,7 @@
         <v>49030.84812934</v>
       </c>
       <c r="H1073" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -36973,7 +37675,7 @@
         <v>49419.44221991</v>
       </c>
       <c r="H1074" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -37006,7 +37708,7 @@
         <v>49109.86173225</v>
       </c>
       <c r="H1075" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -37039,7 +37741,7 @@
         <v>48918.05795744</v>
       </c>
       <c r="H1076" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -37072,7 +37774,7 @@
         <v>48496.44383565</v>
       </c>
       <c r="H1077" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -37105,7 +37807,7 @@
         <v>49116.69026988999</v>
       </c>
       <c r="H1078" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -37138,7 +37840,7 @@
         <v>50142.14282038999</v>
       </c>
       <c r="H1079" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -37171,7 +37873,7 @@
         <v>51538.37960259999</v>
       </c>
       <c r="H1080" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -37204,7 +37906,7 @@
         <v>52639.42538615999</v>
       </c>
       <c r="H1081" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -37237,7 +37939,7 @@
         <v>52040.76939505</v>
       </c>
       <c r="H1082" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -37270,7 +37972,7 @@
         <v>52621.11489899999</v>
       </c>
       <c r="H1083" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -37303,7 +38005,7 @@
         <v>53464.06862432999</v>
       </c>
       <c r="H1084" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -37336,7 +38038,7 @@
         <v>52213.40068127</v>
       </c>
       <c r="H1085" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -37369,7 +38071,7 @@
         <v>52957.50086068</v>
       </c>
       <c r="H1086" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -37402,7 +38104,7 @@
         <v>52608.47163689999</v>
       </c>
       <c r="H1087" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -37435,7 +38137,7 @@
         <v>53284.49329284999</v>
       </c>
       <c r="H1088" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -37468,7 +38170,7 @@
         <v>54078.03591128999</v>
       </c>
       <c r="H1089" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -37501,7 +38203,7 @@
         <v>53195.65098280999</v>
       </c>
       <c r="H1090" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -37534,7 +38236,7 @@
         <v>53558.19803684999</v>
       </c>
       <c r="H1091" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -37567,7 +38269,7 @@
         <v>52772.39228851999</v>
       </c>
       <c r="H1092" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -37600,7 +38302,7 @@
         <v>51775.01778101999</v>
       </c>
       <c r="H1093" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -37633,7 +38335,7 @@
         <v>51775.01778101999</v>
       </c>
       <c r="H1094" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -37666,7 +38368,7 @@
         <v>50815.73757397999</v>
       </c>
       <c r="H1095" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -37732,7 +38434,7 @@
         <v>51650.78777178999</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -37765,7 +38467,7 @@
         <v>52227.44797178999</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -37798,7 +38500,7 @@
         <v>51768.35953902999</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -37831,7 +38533,7 @@
         <v>51375.28863902999</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -37864,7 +38566,7 @@
         <v>51617.83739806999</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -37897,7 +38599,7 @@
         <v>51338.76257506999</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -37930,7 +38632,7 @@
         <v>50909.54143399999</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -37963,7 +38665,7 @@
         <v>50028.34605893999</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -37996,7 +38698,7 @@
         <v>50395.03205922999</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -38029,7 +38731,7 @@
         <v>50106.82824670999</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -38062,7 +38764,7 @@
         <v>50243.08459130999</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -38095,7 +38797,7 @@
         <v>50581.81016408999</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -38128,7 +38830,7 @@
         <v>51213.69877360999</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -38161,7 +38863,7 @@
         <v>51566.50785570999</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -38194,7 +38896,7 @@
         <v>51027.54165570999</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -38227,7 +38929,7 @@
         <v>51196.26915570999</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -38260,7 +38962,7 @@
         <v>51310.81485570999</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -38293,7 +38995,7 @@
         <v>51548.51404592999</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -38392,7 +39094,7 @@
         <v>51086.52334984</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -38557,7 +39259,7 @@
         <v>50839.91744984</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -38590,7 +39292,7 @@
         <v>50956.41340873999</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -38623,7 +39325,7 @@
         <v>50522.46134828999</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -38656,7 +39358,7 @@
         <v>50731.15384828999</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -38722,7 +39424,7 @@
         <v>50707.03783385999</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -38755,7 +39457,7 @@
         <v>50869.38920377999</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -38821,7 +39523,7 @@
         <v>50646.29549753999</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -38854,7 +39556,7 @@
         <v>50730.84509606999</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -38887,7 +39589,7 @@
         <v>50608.17038942999</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -38920,7 +39622,7 @@
         <v>50746.66018943</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -38953,7 +39655,7 @@
         <v>51057.36178583</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -38986,7 +39688,7 @@
         <v>51184.77908579</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -39019,7 +39721,7 @@
         <v>51803.19653433999</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -39052,7 +39754,7 @@
         <v>52247.81611472999</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -39085,7 +39787,7 @@
         <v>51896.77730922999</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -39118,7 +39820,7 @@
         <v>51896.77730922999</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -39151,7 +39853,7 @@
         <v>51830.55195497999</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -39448,7 +40150,7 @@
         <v>51026.90923190999</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -39481,7 +40183,7 @@
         <v>50750.33753190999</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -39514,7 +40216,7 @@
         <v>51338.45190449999</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -39547,7 +40249,7 @@
         <v>51338.45190449999</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -39580,7 +40282,7 @@
         <v>51470.15683190999</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -39613,7 +40315,7 @@
         <v>51337.00934065999</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -39646,7 +40348,7 @@
         <v>51286.13605708999</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -39712,7 +40414,7 @@
         <v>51104.41898836</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -39745,7 +40447,7 @@
         <v>50938.69198836</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -39778,7 +40480,7 @@
         <v>50260.92468836</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -39811,7 +40513,7 @@
         <v>50027.10868836</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -39844,7 +40546,7 @@
         <v>50275.98627669</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -39877,7 +40579,7 @@
         <v>50395.52017669</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -40867,7 +41569,7 @@
         <v>50975.78867250001</v>
       </c>
       <c r="H1192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
@@ -41230,7 +41932,7 @@
         <v>50777.92819959002</v>
       </c>
       <c r="H1203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
@@ -41494,7 +42196,7 @@
         <v>50995.94245185001</v>
       </c>
       <c r="H1211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
@@ -41527,7 +42229,7 @@
         <v>51269.75668429001</v>
       </c>
       <c r="H1212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
@@ -41560,7 +42262,7 @@
         <v>51194.94858379001</v>
       </c>
       <c r="H1213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
@@ -41593,7 +42295,7 @@
         <v>50953.71818379001</v>
       </c>
       <c r="H1214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
@@ -41626,7 +42328,7 @@
         <v>50888.23159594001</v>
       </c>
       <c r="H1215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
@@ -41659,7 +42361,7 @@
         <v>50931.66929594002</v>
       </c>
       <c r="H1216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
@@ -41956,7 +42658,7 @@
         <v>51148.52426953002</v>
       </c>
       <c r="H1225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
@@ -41989,7 +42691,7 @@
         <v>51559.71076953002</v>
       </c>
       <c r="H1226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
@@ -42022,7 +42724,7 @@
         <v>51403.20517606002</v>
       </c>
       <c r="H1227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
@@ -42055,7 +42757,7 @@
         <v>51290.21757606002</v>
       </c>
       <c r="H1228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
@@ -42088,7 +42790,7 @@
         <v>51155.71563017002</v>
       </c>
       <c r="H1229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
@@ -42154,7 +42856,7 @@
         <v>51129.46693077002</v>
       </c>
       <c r="H1231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
@@ -42187,7 +42889,7 @@
         <v>51286.61193077002</v>
       </c>
       <c r="H1232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
@@ -42253,7 +42955,7 @@
         <v>51312.57428867002</v>
       </c>
       <c r="H1234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
@@ -42286,7 +42988,7 @@
         <v>51439.38148867002</v>
       </c>
       <c r="H1235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
@@ -42319,7 +43021,7 @@
         <v>51740.77882258002</v>
       </c>
       <c r="H1236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
@@ -42352,7 +43054,7 @@
         <v>51673.45922364002</v>
       </c>
       <c r="H1237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
@@ -42385,7 +43087,7 @@
         <v>51507.74362826002</v>
       </c>
       <c r="H1238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
@@ -42418,7 +43120,7 @@
         <v>51646.56812813002</v>
       </c>
       <c r="H1239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
@@ -42451,7 +43153,7 @@
         <v>51910.78826292002</v>
       </c>
       <c r="H1240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
@@ -42583,7 +43285,7 @@
         <v>51855.07890216002</v>
       </c>
       <c r="H1244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
@@ -42616,7 +43318,7 @@
         <v>52018.96984266002</v>
       </c>
       <c r="H1245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
@@ -42649,7 +43351,7 @@
         <v>51727.06022929002</v>
       </c>
       <c r="H1246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
@@ -42682,7 +43384,7 @@
         <v>51813.19867535002</v>
       </c>
       <c r="H1247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
@@ -42715,7 +43417,7 @@
         <v>51668.36504126003</v>
       </c>
       <c r="H1248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
@@ -44167,7 +44869,7 @@
         <v>51692.04924495005</v>
       </c>
       <c r="H1292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
@@ -44332,7 +45034,7 @@
         <v>51706.51884353005</v>
       </c>
       <c r="H1297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
@@ -44365,7 +45067,7 @@
         <v>51756.89614353005</v>
       </c>
       <c r="H1298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
@@ -44398,7 +45100,7 @@
         <v>51430.48709066005</v>
       </c>
       <c r="H1299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
@@ -44431,7 +45133,7 @@
         <v>51430.48709066005</v>
       </c>
       <c r="H1300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
@@ -44464,7 +45166,7 @@
         <v>51477.08757853004</v>
       </c>
       <c r="H1301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
@@ -44563,7 +45265,7 @@
         <v>51440.44686287005</v>
       </c>
       <c r="H1304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
@@ -44794,7 +45496,7 @@
         <v>51617.26596287005</v>
       </c>
       <c r="H1311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
@@ -44827,7 +45529,7 @@
         <v>51734.99856287005</v>
       </c>
       <c r="H1312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
@@ -44860,7 +45562,7 @@
         <v>51415.90375020005</v>
       </c>
       <c r="H1313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
@@ -44893,7 +45595,7 @@
         <v>51527.85462352005</v>
       </c>
       <c r="H1314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
@@ -44926,7 +45628,7 @@
         <v>51212.13433132005</v>
       </c>
       <c r="H1315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
@@ -44959,7 +45661,7 @@
         <v>51159.96321805005</v>
       </c>
       <c r="H1316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
@@ -44992,7 +45694,7 @@
         <v>51120.49391805005</v>
       </c>
       <c r="H1317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
@@ -45025,7 +45727,7 @@
         <v>51102.30451805005</v>
       </c>
       <c r="H1318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
@@ -45058,7 +45760,7 @@
         <v>51102.30451805005</v>
       </c>
       <c r="H1319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
@@ -45091,7 +45793,7 @@
         <v>51112.99151899005</v>
       </c>
       <c r="H1320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
@@ -45124,7 +45826,7 @@
         <v>51321.19101805005</v>
       </c>
       <c r="H1321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
@@ -45157,7 +45859,7 @@
         <v>51226.18627957005</v>
       </c>
       <c r="H1322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
@@ -45190,7 +45892,7 @@
         <v>51226.18627957005</v>
       </c>
       <c r="H1323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1323" t="inlineStr"/>
       <c r="J1323" t="inlineStr"/>
@@ -45223,7 +45925,7 @@
         <v>50901.00907957005</v>
       </c>
       <c r="H1324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1324" t="inlineStr"/>
       <c r="J1324" t="inlineStr"/>
@@ -45256,7 +45958,7 @@
         <v>50672.48887957005</v>
       </c>
       <c r="H1325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
@@ -45289,7 +45991,7 @@
         <v>51310.95574965006</v>
       </c>
       <c r="H1326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1326" t="inlineStr"/>
       <c r="J1326" t="inlineStr"/>
@@ -45322,7 +46024,7 @@
         <v>51128.71198250006</v>
       </c>
       <c r="H1327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1327" t="inlineStr"/>
       <c r="J1327" t="inlineStr"/>
@@ -45355,7 +46057,7 @@
         <v>50284.25618250005</v>
       </c>
       <c r="H1328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1328" t="inlineStr"/>
       <c r="J1328" t="inlineStr"/>
@@ -45487,7 +46189,7 @@
         <v>48169.78711042005</v>
       </c>
       <c r="H1332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
@@ -46191,6 +46893,6 @@
       <c r="M1353" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest BSV.xlsx
+++ b/BackTest/2020-01-16 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,17 +484,11 @@
         <v>21270.57705451</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>334600</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>18334.48752246</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>334900</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>16346.82033112</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>320000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>14362.79875191</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>309100</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -648,7 +624,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -755,7 +731,7 @@
         <v>21076.92626389</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -987,11 +963,9 @@
         <v>20174.5847974</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>342300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1026,11 +1000,9 @@
         <v>21011.44554986</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>335000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1065,20 +1037,16 @@
         <v>20353.71214768</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>342000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1104,17 +1072,11 @@
         <v>20658.73794681</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>333000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1151,7 +1113,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1182,11 +1144,9 @@
         <v>21391.26840114</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>335700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1221,11 +1181,9 @@
         <v>21865.39380114</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>339700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1260,11 +1218,9 @@
         <v>21596.63208983</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>339800</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1299,11 +1255,9 @@
         <v>22065.97110731</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>339000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1338,11 +1292,9 @@
         <v>23846.59263665</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>340000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1377,7 +1329,7 @@
         <v>22123.46346839</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1414,7 +1366,7 @@
         <v>21331.87848379</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1525,11 +1477,9 @@
         <v>22282.27985988</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>342000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1564,18 +1514,16 @@
         <v>22809.04535988</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1601,17 +1549,11 @@
         <v>21740.26724436</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>339700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1640,17 +1582,11 @@
         <v>21032.79724318</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>338500</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1679,17 +1615,11 @@
         <v>21875.73059416</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>332000</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1718,17 +1648,11 @@
         <v>21799.53460161</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>334900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1757,17 +1681,11 @@
         <v>22569.21070927</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>334000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1796,17 +1714,11 @@
         <v>21290.08194787</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>339700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1835,17 +1747,11 @@
         <v>22227.45694787</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>339600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1874,17 +1780,11 @@
         <v>21679.82367802</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>342200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1913,17 +1813,11 @@
         <v>21094.90659596</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>339300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1956,11 +1850,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1993,11 +1883,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2030,11 +1916,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2067,11 +1949,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2104,11 +1982,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2141,11 +2015,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2178,11 +2048,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2215,11 +2081,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2252,11 +2114,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2289,11 +2147,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2326,11 +2180,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2363,11 +2213,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2400,11 +2246,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2437,11 +2279,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2474,11 +2312,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2511,11 +2345,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2548,11 +2378,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2585,11 +2411,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2622,11 +2444,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2659,11 +2477,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2696,11 +2510,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2733,11 +2543,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2770,11 +2576,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2803,17 +2605,11 @@
         <v>25273.26997411999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>367000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2846,11 +2642,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2879,17 +2671,11 @@
         <v>27110.14976761999</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>365000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2922,11 +2708,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +2741,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2996,11 +2774,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3033,11 +2807,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3070,11 +2840,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3107,11 +2873,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3144,11 +2906,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3181,11 +2939,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3218,11 +2972,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3255,11 +3005,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3292,11 +3038,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3329,11 +3071,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3366,11 +3104,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3403,11 +3137,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3440,11 +3170,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3477,11 +3203,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3514,11 +3236,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3551,11 +3269,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3588,11 +3302,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3625,11 +3335,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3662,11 +3368,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3699,11 +3401,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3740,7 +3438,7 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -3888,11 +3586,9 @@
         <v>30740.65620022999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>366100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3966,9 +3662,11 @@
         <v>30323.98407490999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>363000</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4003,9 +3701,11 @@
         <v>30399.62167490999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>362900</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -4077,9 +3777,11 @@
         <v>30042.74614368999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>362500</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -4114,9 +3816,11 @@
         <v>29813.98404368999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>362000</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4151,9 +3855,11 @@
         <v>29663.59564368999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>360900</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4225,9 +3931,11 @@
         <v>30127.51693558999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>361400</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4262,9 +3970,11 @@
         <v>30492.82327638999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>362400</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4299,9 +4009,11 @@
         <v>30308.80577638999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>365000</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4373,9 +4085,11 @@
         <v>30560.45447651999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>364600</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4410,9 +4124,11 @@
         <v>30269.82016133999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>364100</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4447,9 +4163,11 @@
         <v>30741.02512527999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>363800</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4669,9 +4387,11 @@
         <v>30471.97092807999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>357500</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4706,9 +4426,11 @@
         <v>30013.94002807999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>359200</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4743,9 +4465,11 @@
         <v>30210.26322807999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>355000</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4780,9 +4504,11 @@
         <v>30330.95138302999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>357900</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4817,9 +4543,11 @@
         <v>30518.93278543999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>359900</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4854,9 +4582,11 @@
         <v>30686.58323387999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>360500</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4891,9 +4621,11 @@
         <v>30472.58323387999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>361700</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4928,9 +4660,11 @@
         <v>30649.07533672999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>360000</v>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4965,9 +4699,11 @@
         <v>30535.23751172999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>360100</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5002,9 +4738,11 @@
         <v>28535.45501172999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>358200</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -5113,9 +4851,11 @@
         <v>29777.91033702999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>350100</v>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5150,9 +4890,11 @@
         <v>29876.87787274999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>354000</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -6371,9 +6113,11 @@
         <v>29520.70686496999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>339900</v>
+      </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6408,9 +6152,11 @@
         <v>29091.72666496999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>335300</v>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6445,9 +6191,11 @@
         <v>29250.20806496999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>333200</v>
+      </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6482,9 +6230,11 @@
         <v>29482.14406496999</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>336700</v>
+      </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6519,9 +6269,11 @@
         <v>29293.58266496999</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>338800</v>
+      </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6593,9 +6345,11 @@
         <v>29326.90666496999</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>336500</v>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6630,9 +6384,11 @@
         <v>29542.94829219999</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>338700</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6667,9 +6423,11 @@
         <v>29980.28799219999</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>342000</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6741,9 +6499,11 @@
         <v>29686.78755389999</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>348900</v>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6815,9 +6575,11 @@
         <v>30056.87749179999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>343900</v>
+      </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6852,9 +6614,11 @@
         <v>29933.45410257999</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>344800</v>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6889,9 +6653,11 @@
         <v>29757.82950257999</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>344300</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6926,9 +6692,11 @@
         <v>29670.88520257999</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>343900</v>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6963,9 +6731,11 @@
         <v>29412.83261364999</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>343600</v>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -7000,9 +6770,11 @@
         <v>29743.11241364999</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>343100</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -7037,9 +6809,11 @@
         <v>30090.04081423999</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>344000</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -7074,9 +6848,11 @@
         <v>30244.32816581999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>346000</v>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -7111,9 +6887,11 @@
         <v>30666.46586581999</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>346200</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -7148,9 +6926,11 @@
         <v>30267.72083044999</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>353400</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -7185,9 +6965,11 @@
         <v>30570.18308167999</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>352300</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -7222,9 +7004,11 @@
         <v>30769.27314568999</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>353400</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -7259,9 +7043,11 @@
         <v>30616.92841029999</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>356400</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -7370,9 +7156,11 @@
         <v>30673.74981029999</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>353900</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7407,9 +7195,11 @@
         <v>30582.86071029999</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>355000</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -7444,9 +7234,11 @@
         <v>30520.47731029999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>353000</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7481,9 +7273,11 @@
         <v>30340.72221029999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>350000</v>
+      </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7518,9 +7312,11 @@
         <v>30459.37481029999</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>349000</v>
+      </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7555,9 +7351,11 @@
         <v>30402.02681029999</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>351100</v>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7592,9 +7390,11 @@
         <v>30407.61420923999</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>351000</v>
+      </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7629,9 +7429,11 @@
         <v>30386.83680923999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>351100</v>
+      </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7666,9 +7468,11 @@
         <v>30374.64120923999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>350000</v>
+      </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7703,9 +7507,11 @@
         <v>30398.26470923999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>349600</v>
+      </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7740,9 +7546,11 @@
         <v>30330.19900923999</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>350700</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7777,9 +7585,11 @@
         <v>30385.90970923999</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>349600</v>
+      </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7814,9 +7624,11 @@
         <v>30593.67010923999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>350400</v>
+      </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7851,9 +7663,11 @@
         <v>30497.23776596999</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>351700</v>
+      </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -8036,9 +7850,11 @@
         <v>30492.22796597</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>349600</v>
+      </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -8073,9 +7889,11 @@
         <v>30429.37606596999</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>349600</v>
+      </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -8110,9 +7928,11 @@
         <v>30603.78416597</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>349000</v>
+      </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -8147,9 +7967,11 @@
         <v>30508.62956596999</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>351000</v>
+      </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -8184,9 +8006,11 @@
         <v>30561.51376596999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>349700</v>
+      </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -8221,9 +8045,11 @@
         <v>30622.55106596999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>349800</v>
+      </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -8258,9 +8084,11 @@
         <v>30759.65186596999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>350000</v>
+      </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -8295,9 +8123,11 @@
         <v>30728.37716596999</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>351400</v>
+      </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -8332,9 +8162,11 @@
         <v>30732.29230308999</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>349700</v>
+      </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -8369,9 +8201,11 @@
         <v>30872.72150121999</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>350800</v>
+      </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
@@ -8406,9 +8240,11 @@
         <v>31237.64910121999</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>354000</v>
+      </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -8443,9 +8279,11 @@
         <v>31391.47616369999</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>355200</v>
+      </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -8480,9 +8318,11 @@
         <v>31434.07416369999</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>355800</v>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8517,9 +8357,11 @@
         <v>31597.42226369999</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>356800</v>
+      </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -8554,9 +8396,11 @@
         <v>31722.93806369999</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>358700</v>
+      </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8628,9 +8472,11 @@
         <v>32213.66609804999</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>362000</v>
+      </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -15547,18 +15393,16 @@
         <v>40640.35342251001</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L408" t="n">
-        <v>1</v>
-      </c>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="inlineStr"/>
     </row>
     <row r="409">
@@ -15584,15 +15428,11 @@
         <v>41256.96197671001</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15621,15 +15461,11 @@
         <v>41649.34760054001</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15658,15 +15494,11 @@
         <v>42389.93077874001</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15695,15 +15527,11 @@
         <v>43042.04782518001</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15732,15 +15560,11 @@
         <v>43793.65928885001</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15769,15 +15593,11 @@
         <v>42728.75562466001</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15806,15 +15626,11 @@
         <v>43303.90783</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15843,15 +15659,11 @@
         <v>44001.19951073</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15880,15 +15692,11 @@
         <v>45082.63938437001</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15917,15 +15725,11 @@
         <v>44393.67845202001</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15954,15 +15758,11 @@
         <v>45187.46802415001</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15991,15 +15791,11 @@
         <v>46203.06384794001</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16028,15 +15824,11 @@
         <v>45468.24295040001</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16065,15 +15857,11 @@
         <v>44608.95656495001</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16102,15 +15890,11 @@
         <v>43688.50472275001</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16143,11 +15927,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16180,11 +15960,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16217,11 +15993,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16254,11 +16026,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16291,11 +16059,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16328,11 +16092,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16365,11 +16125,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16402,11 +16158,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16439,11 +16191,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16476,11 +16224,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16513,11 +16257,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16550,11 +16290,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16587,11 +16323,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16624,11 +16356,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16661,11 +16389,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16698,11 +16422,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16735,11 +16455,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16772,11 +16488,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16809,11 +16521,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16846,11 +16554,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16883,11 +16587,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16916,16 +16616,14 @@
         <v>49444.07502769001</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="n">
+        <v>1</v>
+      </c>
       <c r="M445" t="inlineStr"/>
     </row>
     <row r="446">
@@ -16951,7 +16649,7 @@
         <v>50455.75142449001</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16984,7 +16682,7 @@
         <v>51702.12601909001</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17017,7 +16715,7 @@
         <v>50030.58944692001</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17050,7 +16748,7 @@
         <v>50623.37552013001</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17083,7 +16781,7 @@
         <v>52008.34157476001</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17116,7 +16814,7 @@
         <v>50961.54398343001</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17149,7 +16847,7 @@
         <v>51798.60788488</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17182,7 +16880,7 @@
         <v>50702.09423841001</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17215,7 +16913,7 @@
         <v>51091.31579373001</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17248,7 +16946,7 @@
         <v>51696.30301887001</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17281,7 +16979,7 @@
         <v>52287.30485614001</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17314,7 +17012,7 @@
         <v>51582.30340954001</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17347,7 +17045,7 @@
         <v>49935.74663746</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17380,7 +17078,7 @@
         <v>50906.01344229</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17413,7 +17111,7 @@
         <v>51511.98564884</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17446,7 +17144,7 @@
         <v>51066.31121211001</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17479,7 +17177,7 @@
         <v>49829.25703470001</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17512,7 +17210,7 @@
         <v>51621.80318581001</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17545,7 +17243,7 @@
         <v>50832.51198226001</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17578,7 +17276,7 @@
         <v>51516.32143952001</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17611,7 +17309,7 @@
         <v>51881.88864071001</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17644,7 +17342,7 @@
         <v>52541.40317159001</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17677,7 +17375,7 @@
         <v>52180.87501527002</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17710,7 +17408,7 @@
         <v>51857.31448715002</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17743,7 +17441,7 @@
         <v>52337.18476007002</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17776,7 +17474,7 @@
         <v>52058.26835725002</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17809,7 +17507,7 @@
         <v>51686.35946961002</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17842,7 +17540,7 @@
         <v>51250.21657279002</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17875,7 +17573,7 @@
         <v>51710.99963260002</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17908,7 +17606,7 @@
         <v>52198.37852341002</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17941,7 +17639,7 @@
         <v>51751.44385665002</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17974,7 +17672,7 @@
         <v>51445.31925140003</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18007,7 +17705,7 @@
         <v>51237.21136647002</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18073,7 +17771,7 @@
         <v>51239.26007861002</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18370,7 +18068,7 @@
         <v>50553.88392844003</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18403,7 +18101,7 @@
         <v>51027.22908595003</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18436,7 +18134,7 @@
         <v>51665.96766909003</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18469,7 +18167,7 @@
         <v>52506.25285490003</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18502,7 +18200,7 @@
         <v>51708.02744735002</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18535,7 +18233,7 @@
         <v>52133.33374735002</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18568,7 +18266,7 @@
         <v>52594.97227344002</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18601,7 +18299,7 @@
         <v>52857.51729454002</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18634,7 +18332,7 @@
         <v>53100.45447113002</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18667,7 +18365,7 @@
         <v>52515.48553969002</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18700,7 +18398,7 @@
         <v>52163.60210455002</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18733,7 +18431,7 @@
         <v>51783.54507478001</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18766,7 +18464,7 @@
         <v>51997.64980693001</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18799,7 +18497,7 @@
         <v>51776.89194901002</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18832,7 +18530,7 @@
         <v>51624.47871028002</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18865,7 +18563,7 @@
         <v>51322.68106893002</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18898,7 +18596,7 @@
         <v>50791.99066893002</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18931,7 +18629,7 @@
         <v>51094.77718884002</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18964,7 +18662,7 @@
         <v>51094.77718884002</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18997,7 +18695,7 @@
         <v>51520.35603340001</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19030,7 +18728,7 @@
         <v>51985.80431496001</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19063,7 +18761,7 @@
         <v>52259.07521391002</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19096,7 +18794,7 @@
         <v>52059.14895409001</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19129,7 +18827,7 @@
         <v>52223.16871727001</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19162,7 +18860,7 @@
         <v>52040.10213289001</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19195,7 +18893,7 @@
         <v>51936.90557603001</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19228,7 +18926,7 @@
         <v>52057.42571917001</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19261,7 +18959,7 @@
         <v>52263.59817687001</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19294,7 +18992,7 @@
         <v>52223.99112641001</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19327,7 +19025,7 @@
         <v>52138.12332641001</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19360,7 +19058,7 @@
         <v>52297.41737903001</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19393,7 +19091,7 @@
         <v>52196.13387903001</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19426,7 +19124,7 @@
         <v>52104.47977903001</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19459,7 +19157,7 @@
         <v>52218.52817872001</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19492,7 +19190,7 @@
         <v>52077.56237872002</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19525,7 +19223,7 @@
         <v>51824.69030826002</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19558,7 +19256,7 @@
         <v>51660.23218741002</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19591,7 +19289,7 @@
         <v>51323.30620741002</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19624,7 +19322,7 @@
         <v>50672.99355473002</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19657,7 +19355,7 @@
         <v>51560.01155486002</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19690,7 +19388,7 @@
         <v>51052.25103564002</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19723,7 +19421,7 @@
         <v>50377.12725953003</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19756,7 +19454,7 @@
         <v>51067.84282327002</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19789,7 +19487,7 @@
         <v>50447.63812827002</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19822,7 +19520,7 @@
         <v>50802.32748253003</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19855,7 +19553,7 @@
         <v>51226.85663780003</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19888,7 +19586,7 @@
         <v>51685.60003421002</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19921,7 +19619,7 @@
         <v>52082.69310357003</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19954,7 +19652,7 @@
         <v>51828.80705903003</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19987,7 +19685,7 @@
         <v>51685.90475903003</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20020,7 +19718,7 @@
         <v>51632.98134049003</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20053,7 +19751,7 @@
         <v>51466.14564049002</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20086,7 +19784,7 @@
         <v>50952.53880069002</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20119,7 +19817,7 @@
         <v>50071.31814062002</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20152,7 +19850,7 @@
         <v>48379.45099165002</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20185,7 +19883,7 @@
         <v>49384.62768137002</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20218,7 +19916,7 @@
         <v>48588.61872516003</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20251,7 +19949,7 @@
         <v>47531.48889094003</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20284,7 +19982,7 @@
         <v>46355.10369094003</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20317,7 +20015,7 @@
         <v>47620.04906353003</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20350,7 +20048,7 @@
         <v>46471.25149052003</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20383,7 +20081,7 @@
         <v>44980.51123566003</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20416,7 +20114,7 @@
         <v>44407.48944580003</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20449,7 +20147,7 @@
         <v>45314.05007778003</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20482,7 +20180,7 @@
         <v>46005.23932138002</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20515,7 +20213,7 @@
         <v>46931.28587039003</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20548,7 +20246,7 @@
         <v>48127.99638720003</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20581,7 +20279,7 @@
         <v>47634.29129551003</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20614,7 +20312,7 @@
         <v>47206.15440965003</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20647,7 +20345,7 @@
         <v>47813.45479505003</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20680,7 +20378,7 @@
         <v>48220.09278534003</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20713,7 +20411,7 @@
         <v>49156.14846026002</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20746,7 +20444,7 @@
         <v>49839.24101161002</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20779,7 +20477,7 @@
         <v>50953.70621434003</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20812,7 +20510,7 @@
         <v>51757.39381434002</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20845,7 +20543,7 @@
         <v>50872.87799102002</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -22033,7 +21731,7 @@
         <v>51432.85416136002</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22066,7 +21764,7 @@
         <v>51596.38972857002</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22099,7 +21797,7 @@
         <v>51398.32732909003</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22132,7 +21830,7 @@
         <v>51443.24732993003</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22165,7 +21863,7 @@
         <v>51386.34724183002</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22198,7 +21896,7 @@
         <v>51476.27735373002</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22231,7 +21929,7 @@
         <v>51552.71045437003</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22264,7 +21962,7 @@
         <v>51552.71045437003</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22297,7 +21995,7 @@
         <v>51485.19165549002</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22396,7 +22094,7 @@
         <v>51886.13458818002</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22429,7 +22127,7 @@
         <v>52035.00628562002</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22495,7 +22193,7 @@
         <v>52470.06356547002</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22561,7 +22259,7 @@
         <v>53097.65884737002</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -24508,7 +24206,7 @@
         <v>49475.72284024004</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24541,7 +24239,7 @@
         <v>49801.26024024004</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24574,7 +24272,7 @@
         <v>49801.26024024004</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24607,7 +24305,7 @@
         <v>49878.03872228003</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24673,7 +24371,7 @@
         <v>49938.30372228003</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24706,7 +24404,7 @@
         <v>49833.09992228003</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24739,7 +24437,7 @@
         <v>49699.12406253003</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24772,7 +24470,7 @@
         <v>49728.31066164003</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24805,7 +24503,7 @@
         <v>49825.02147234003</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24838,7 +24536,7 @@
         <v>49733.78045525004</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24871,7 +24569,7 @@
         <v>49651.78534569004</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25564,7 +25262,7 @@
         <v>49190.38098607005</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25597,7 +25295,7 @@
         <v>49217.67598607005</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25729,7 +25427,7 @@
         <v>49225.49159349005</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26884,7 +26582,7 @@
         <v>48777.52844338006</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26917,7 +26615,7 @@
         <v>48440.30564338005</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26950,7 +26648,7 @@
         <v>47467.22554338005</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26983,7 +26681,7 @@
         <v>48301.77359282006</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27016,7 +26714,7 @@
         <v>47964.40256907006</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27049,7 +26747,7 @@
         <v>48641.32931673006</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -38302,7 +38000,7 @@
         <v>51775.01778101999</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -38368,7 +38066,7 @@
         <v>50815.73757397999</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -38434,7 +38132,7 @@
         <v>51650.78777178999</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -38467,7 +38165,7 @@
         <v>52227.44797178999</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -38500,7 +38198,7 @@
         <v>51768.35953902999</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -38533,7 +38231,7 @@
         <v>51375.28863902999</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -38566,7 +38264,7 @@
         <v>51617.83739806999</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -38599,7 +38297,7 @@
         <v>51338.76257506999</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -38632,7 +38330,7 @@
         <v>50909.54143399999</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -38665,7 +38363,7 @@
         <v>50028.34605893999</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -38698,7 +38396,7 @@
         <v>50395.03205922999</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -38731,7 +38429,7 @@
         <v>50106.82824670999</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -38764,7 +38462,7 @@
         <v>50243.08459130999</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -38797,7 +38495,7 @@
         <v>50581.81016408999</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -38830,7 +38528,7 @@
         <v>51213.69877360999</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -38863,7 +38561,7 @@
         <v>51566.50785570999</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -38896,7 +38594,7 @@
         <v>51027.54165570999</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -38929,7 +38627,7 @@
         <v>51196.26915570999</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -38962,7 +38660,7 @@
         <v>51310.81485570999</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -38995,7 +38693,7 @@
         <v>51548.51404592999</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -39094,7 +38792,7 @@
         <v>51086.52334984</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -39259,7 +38957,7 @@
         <v>50839.91744984</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -39292,7 +38990,7 @@
         <v>50956.41340873999</v>
       </c>
       <c r="H1123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -39325,7 +39023,7 @@
         <v>50522.46134828999</v>
       </c>
       <c r="H1124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -39358,7 +39056,7 @@
         <v>50731.15384828999</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -39424,7 +39122,7 @@
         <v>50707.03783385999</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -39457,7 +39155,7 @@
         <v>50869.38920377999</v>
       </c>
       <c r="H1128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -39523,7 +39221,7 @@
         <v>50646.29549753999</v>
       </c>
       <c r="H1130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -39556,7 +39254,7 @@
         <v>50730.84509606999</v>
       </c>
       <c r="H1131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -39589,7 +39287,7 @@
         <v>50608.17038942999</v>
       </c>
       <c r="H1132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -39622,7 +39320,7 @@
         <v>50746.66018943</v>
       </c>
       <c r="H1133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -39655,7 +39353,7 @@
         <v>51057.36178583</v>
       </c>
       <c r="H1134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -39688,7 +39386,7 @@
         <v>51184.77908579</v>
       </c>
       <c r="H1135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -39721,7 +39419,7 @@
         <v>51803.19653433999</v>
       </c>
       <c r="H1136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -39754,7 +39452,7 @@
         <v>52247.81611472999</v>
       </c>
       <c r="H1137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -39787,7 +39485,7 @@
         <v>51896.77730922999</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -39820,7 +39518,7 @@
         <v>51896.77730922999</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -39853,7 +39551,7 @@
         <v>51830.55195497999</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -40150,7 +39848,7 @@
         <v>51026.90923190999</v>
       </c>
       <c r="H1149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -40183,7 +39881,7 @@
         <v>50750.33753190999</v>
       </c>
       <c r="H1150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -40216,7 +39914,7 @@
         <v>51338.45190449999</v>
       </c>
       <c r="H1151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -40249,7 +39947,7 @@
         <v>51338.45190449999</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -40282,7 +39980,7 @@
         <v>51470.15683190999</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -40315,7 +40013,7 @@
         <v>51337.00934065999</v>
       </c>
       <c r="H1154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -40348,7 +40046,7 @@
         <v>51286.13605708999</v>
       </c>
       <c r="H1155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -40414,7 +40112,7 @@
         <v>51104.41898836</v>
       </c>
       <c r="H1157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -40447,7 +40145,7 @@
         <v>50938.69198836</v>
       </c>
       <c r="H1158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -40480,7 +40178,7 @@
         <v>50260.92468836</v>
       </c>
       <c r="H1159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -40513,7 +40211,7 @@
         <v>50027.10868836</v>
       </c>
       <c r="H1160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -40546,7 +40244,7 @@
         <v>50275.98627669</v>
       </c>
       <c r="H1161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -40579,7 +40277,7 @@
         <v>50395.52017669</v>
       </c>
       <c r="H1162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -46189,7 +45887,7 @@
         <v>48169.78711042005</v>
       </c>
       <c r="H1332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
@@ -46893,6 +46591,6 @@
       <c r="M1353" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest BSV.xlsx
+++ b/BackTest/2020-01-16 BackTest BSV.xlsx
@@ -484,11 +484,17 @@
         <v>21270.57705451</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>334600</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>18334.48752246</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>334900</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>16346.82033112</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>320000</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>14362.79875191</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>309100</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -624,7 +648,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -731,7 +755,7 @@
         <v>21076.92626389</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -768,11 +792,9 @@
         <v>19200.81397379</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>333300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -807,11 +829,9 @@
         <v>20280.25451619</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>319100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -846,11 +866,9 @@
         <v>19514.6823054</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>323500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -885,11 +903,9 @@
         <v>19958.36400441</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>322400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -924,11 +940,9 @@
         <v>21677.94700758</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>324100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -1000,7 +1014,7 @@
         <v>21011.44554986</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1037,16 +1051,18 @@
         <v>20353.71214768</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
       <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1076,7 +1092,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1105,15 +1125,13 @@
         <v>20427.14024681</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>337800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1218,7 +1236,7 @@
         <v>21596.63208983</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1329,7 +1347,7 @@
         <v>22123.46346839</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1366,7 +1384,7 @@
         <v>21331.87848379</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1477,7 +1495,7 @@
         <v>22282.27985988</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1514,16 +1532,18 @@
         <v>22809.04535988</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
       <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1553,7 +1573,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1582,11 +1606,15 @@
         <v>21032.79724318</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1615,11 +1643,15 @@
         <v>21875.73059416</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1652,7 +1684,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1685,7 +1721,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1718,7 +1758,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1751,7 +1795,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1784,7 +1832,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1817,7 +1869,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1850,7 +1906,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1883,7 +1943,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1916,7 +1980,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1949,7 +2017,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1982,7 +2054,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2015,7 +2091,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2048,7 +2128,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2081,7 +2165,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2114,7 +2202,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2147,7 +2239,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2180,7 +2276,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2213,7 +2313,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2246,7 +2350,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2279,7 +2387,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2312,7 +2424,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2345,7 +2461,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2378,7 +2498,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2411,7 +2535,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2444,7 +2572,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2477,7 +2609,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2510,7 +2646,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2543,7 +2683,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2576,7 +2720,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2609,7 +2757,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2642,7 +2794,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2675,7 +2831,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2708,7 +2868,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2741,7 +2905,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2774,7 +2942,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2807,7 +2979,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2840,7 +3016,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2873,7 +3053,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2906,7 +3090,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2939,7 +3127,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2972,7 +3164,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3005,7 +3201,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3038,7 +3238,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3071,7 +3275,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3104,7 +3312,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3137,7 +3349,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3170,7 +3386,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3203,7 +3423,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3236,7 +3460,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3269,7 +3497,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3302,7 +3534,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3335,7 +3571,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3368,7 +3608,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3401,7 +3645,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3430,15 +3678,13 @@
         <v>28459.48154349999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>349800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -3469,11 +3715,9 @@
         <v>29008.7859435</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>352800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3508,11 +3752,9 @@
         <v>30024.83979225</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>353600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3547,11 +3789,9 @@
         <v>31171.77807284</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>360000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3623,11 +3863,9 @@
         <v>30404.99517490999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>365900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3662,11 +3900,9 @@
         <v>30323.98407490999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>363000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3701,11 +3937,9 @@
         <v>30399.62167490999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>362900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -3777,11 +4011,9 @@
         <v>30042.74614368999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>362500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -3816,11 +4048,9 @@
         <v>29813.98404368999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>362000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -3855,11 +4085,9 @@
         <v>29663.59564368999</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>360900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -3931,11 +4159,9 @@
         <v>30127.51693558999</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>361400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -3970,11 +4196,9 @@
         <v>30492.82327638999</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>362400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4009,11 +4233,9 @@
         <v>30308.80577638999</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>365000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4085,11 +4307,9 @@
         <v>30560.45447651999</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>364600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4124,11 +4344,9 @@
         <v>30269.82016133999</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>364100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4163,11 +4381,9 @@
         <v>30741.02512527999</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>363800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4387,11 +4603,9 @@
         <v>30471.97092807999</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>357500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4426,11 +4640,9 @@
         <v>30013.94002807999</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>359200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4465,11 +4677,9 @@
         <v>30210.26322807999</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>355000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4504,11 +4714,9 @@
         <v>30330.95138302999</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>357900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4543,11 +4751,9 @@
         <v>30518.93278543999</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>359900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4582,11 +4788,9 @@
         <v>30686.58323387999</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>360500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4621,11 +4825,9 @@
         <v>30472.58323387999</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>361700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4660,11 +4862,9 @@
         <v>30649.07533672999</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>360000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4699,11 +4899,9 @@
         <v>30535.23751172999</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>360100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -4738,11 +4936,9 @@
         <v>28535.45501172999</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>358200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4851,11 +5047,9 @@
         <v>29777.91033702999</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>350100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -4890,11 +5084,9 @@
         <v>29876.87787274999</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>354000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -6113,11 +6305,9 @@
         <v>29520.70686496999</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>339900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6152,11 +6342,9 @@
         <v>29091.72666496999</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>335300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6191,11 +6379,9 @@
         <v>29250.20806496999</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>333200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6230,11 +6416,9 @@
         <v>29482.14406496999</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>336700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6269,11 +6453,9 @@
         <v>29293.58266496999</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>338800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6345,11 +6527,9 @@
         <v>29326.90666496999</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>336500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6384,11 +6564,9 @@
         <v>29542.94829219999</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>338700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6423,11 +6601,9 @@
         <v>29980.28799219999</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>342000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6499,11 +6675,9 @@
         <v>29686.78755389999</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>348900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6575,11 +6749,9 @@
         <v>30056.87749179999</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>343900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6614,11 +6786,9 @@
         <v>29933.45410257999</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>344800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6653,11 +6823,9 @@
         <v>29757.82950257999</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>344300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6692,11 +6860,9 @@
         <v>29670.88520257999</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>343900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6731,11 +6897,9 @@
         <v>29412.83261364999</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>343600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6770,11 +6934,9 @@
         <v>29743.11241364999</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>343100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6809,11 +6971,9 @@
         <v>30090.04081423999</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>344000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -6848,11 +7008,9 @@
         <v>30244.32816581999</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>346000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -6887,11 +7045,9 @@
         <v>30666.46586581999</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>346200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6926,11 +7082,9 @@
         <v>30267.72083044999</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>353400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6965,11 +7119,9 @@
         <v>30570.18308167999</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>352300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -7004,11 +7156,9 @@
         <v>30769.27314568999</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>353400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -7043,11 +7193,9 @@
         <v>30616.92841029999</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>356400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -7156,11 +7304,9 @@
         <v>30673.74981029999</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>353900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7195,11 +7341,9 @@
         <v>30582.86071029999</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>355000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -7234,11 +7378,9 @@
         <v>30520.47731029999</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>353000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7273,11 +7415,9 @@
         <v>30340.72221029999</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>350000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7312,11 +7452,9 @@
         <v>30459.37481029999</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>349000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7351,11 +7489,9 @@
         <v>30402.02681029999</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>351100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7390,11 +7526,9 @@
         <v>30407.61420923999</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>351000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7429,11 +7563,9 @@
         <v>30386.83680923999</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>351100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7468,11 +7600,9 @@
         <v>30374.64120923999</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>350000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7507,11 +7637,9 @@
         <v>30398.26470923999</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>349600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7546,11 +7674,9 @@
         <v>30330.19900923999</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>350700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7585,11 +7711,9 @@
         <v>30385.90970923999</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>349600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7624,11 +7748,9 @@
         <v>30593.67010923999</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>350400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7663,11 +7785,9 @@
         <v>30497.23776596999</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>351700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7850,11 +7970,9 @@
         <v>30492.22796597</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>349600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -7889,11 +8007,9 @@
         <v>30429.37606596999</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>349600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7928,11 +8044,9 @@
         <v>30603.78416597</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>349000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -7967,11 +8081,9 @@
         <v>30508.62956596999</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>351000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -8006,11 +8118,9 @@
         <v>30561.51376596999</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>349700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -8045,11 +8155,9 @@
         <v>30622.55106596999</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>349800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -8084,11 +8192,9 @@
         <v>30759.65186596999</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>350000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -8123,11 +8229,9 @@
         <v>30728.37716596999</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>351400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -8162,11 +8266,9 @@
         <v>30732.29230308999</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>349700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -8201,11 +8303,9 @@
         <v>30872.72150121999</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>350800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
@@ -8240,11 +8340,9 @@
         <v>31237.64910121999</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>354000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -8279,11 +8377,9 @@
         <v>31391.47616369999</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>355200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -8318,11 +8414,9 @@
         <v>31434.07416369999</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>355800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8357,11 +8451,9 @@
         <v>31597.42226369999</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>356800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -8396,11 +8488,9 @@
         <v>31722.93806369999</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>358700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8472,11 +8562,9 @@
         <v>32213.66609804999</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>362000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -15393,16 +15481,18 @@
         <v>40640.35342251001</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="n">
+        <v>1</v>
+      </c>
       <c r="M408" t="inlineStr"/>
     </row>
     <row r="409">
@@ -15428,11 +15518,15 @@
         <v>41256.96197671001</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15461,11 +15555,15 @@
         <v>41649.34760054001</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15494,11 +15592,15 @@
         <v>42389.93077874001</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15527,11 +15629,15 @@
         <v>43042.04782518001</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15560,11 +15666,15 @@
         <v>43793.65928885001</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15593,11 +15703,15 @@
         <v>42728.75562466001</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15626,11 +15740,15 @@
         <v>43303.90783</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15659,11 +15777,15 @@
         <v>44001.19951073</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15692,11 +15814,15 @@
         <v>45082.63938437001</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15725,11 +15851,15 @@
         <v>44393.67845202001</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15758,11 +15888,15 @@
         <v>45187.46802415001</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15791,11 +15925,15 @@
         <v>46203.06384794001</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15824,11 +15962,15 @@
         <v>45468.24295040001</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15857,11 +15999,15 @@
         <v>44608.95656495001</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15890,11 +16036,15 @@
         <v>43688.50472275001</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15927,7 +16077,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15960,7 +16114,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15993,7 +16151,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16026,7 +16188,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16059,7 +16225,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16092,7 +16262,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16125,7 +16299,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16158,7 +16336,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16191,7 +16373,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16224,7 +16410,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16257,7 +16447,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16290,7 +16484,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16323,7 +16521,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16356,7 +16558,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16389,7 +16595,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16422,7 +16632,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16451,14 +16665,16 @@
         <v>45987.62122057001</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="n">
-        <v>1</v>
-      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L440" t="inlineStr"/>
       <c r="M440" t="inlineStr"/>
     </row>
     <row r="441">
@@ -16484,7 +16700,7 @@
         <v>47195.39265720001</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16517,7 +16733,7 @@
         <v>47816.20774078001</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16550,7 +16766,7 @@
         <v>49704.07214894001</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16583,7 +16799,7 @@
         <v>51060.80883196001</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16616,7 +16832,7 @@
         <v>49444.07502769001</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16649,7 +16865,7 @@
         <v>50455.75142449001</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16682,7 +16898,7 @@
         <v>51702.12601909001</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16715,7 +16931,7 @@
         <v>50030.58944692001</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16748,7 +16964,7 @@
         <v>50623.37552013001</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16781,7 +16997,7 @@
         <v>52008.34157476001</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16814,7 +17030,7 @@
         <v>50961.54398343001</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16847,7 +17063,7 @@
         <v>51798.60788488</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16880,7 +17096,7 @@
         <v>50702.09423841001</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16913,7 +17129,7 @@
         <v>51091.31579373001</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16946,7 +17162,7 @@
         <v>51696.30301887001</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16979,7 +17195,7 @@
         <v>52287.30485614001</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17012,7 +17228,7 @@
         <v>51582.30340954001</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17045,7 +17261,7 @@
         <v>49935.74663746</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17078,7 +17294,7 @@
         <v>50906.01344229</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17111,7 +17327,7 @@
         <v>51511.98564884</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17144,7 +17360,7 @@
         <v>51066.31121211001</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17177,7 +17393,7 @@
         <v>49829.25703470001</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17210,7 +17426,7 @@
         <v>51621.80318581001</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17243,7 +17459,7 @@
         <v>50832.51198226001</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17276,7 +17492,7 @@
         <v>51516.32143952001</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17309,7 +17525,7 @@
         <v>51881.88864071001</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17342,7 +17558,7 @@
         <v>52541.40317159001</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17375,7 +17591,7 @@
         <v>52180.87501527002</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17408,7 +17624,7 @@
         <v>51857.31448715002</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17441,7 +17657,7 @@
         <v>52337.18476007002</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17474,7 +17690,7 @@
         <v>52058.26835725002</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17507,7 +17723,7 @@
         <v>51686.35946961002</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17540,7 +17756,7 @@
         <v>51250.21657279002</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17573,7 +17789,7 @@
         <v>51710.99963260002</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17606,7 +17822,7 @@
         <v>52198.37852341002</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17639,7 +17855,7 @@
         <v>51751.44385665002</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17672,7 +17888,7 @@
         <v>51445.31925140003</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17705,7 +17921,7 @@
         <v>51237.21136647002</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17738,7 +17954,7 @@
         <v>51024.90835758003</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17771,7 +17987,7 @@
         <v>51239.26007861002</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17804,7 +18020,7 @@
         <v>51088.67085033003</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17837,7 +18053,7 @@
         <v>51368.09308107002</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17870,7 +18086,7 @@
         <v>50784.67305316003</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17903,7 +18119,7 @@
         <v>50784.67305316003</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17936,7 +18152,7 @@
         <v>51003.31559767003</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17969,7 +18185,7 @@
         <v>50741.70334962003</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18068,7 +18284,7 @@
         <v>50553.88392844003</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
